--- a/database/Маълумотлар.xlsx
+++ b/database/Маълумотлар.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>Азиз Абдурасулов</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -480,14 +480,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ramazon Isabayev</t>
+          <t>Isabayev Ramazan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,6 +498,108 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ataxodjayev Lazizxon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>998993110888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Суллетбаев Бекжан</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>998903533393</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Afzal Abdullakhujaev</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Narzullayev Azizjon</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+998977176016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Карева Оксана</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>998909642126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Abrorxon Xodjimuratov</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>998998566655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/database/Маълумотлар.xlsx
+++ b/database/Маълумотлар.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Азиз Абдурасулов</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,16 +461,14 @@
           <t>+998909789065</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,27 +476,23 @@
           <t>998998727161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Isabayev Ramazan</t>
+          <t>tkoj  opgtrjhpo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>998881871871</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +506,8 @@
           <t>998993110888</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -529,16 +521,14 @@
           <t>998903533393</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Afzal Abdullakhujaev</t>
+          <t>Afzal Abdullah</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -546,10 +536,8 @@
           <t>998999901119</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="C7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +551,8 @@
           <t>+998977176016</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -580,10 +566,8 @@
           <t>998909642126</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -597,10 +581,23 @@
           <t>998998566655</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Гончар Тарас</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>998974109792</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
